--- a/Summary/summary_multinomial.xlsx
+++ b/Summary/summary_multinomial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA19D98F-0D31-A743-99A9-E358BEED2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBFFB30-77A6-494A-8774-009324E267B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
   <si>
     <t>Loss</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin +
+ Augmentation + 
+Adding Noises</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,6 +876,30 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,10 +936,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,15 +990,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,12 +1002,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,18 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E29D67-F4BD-0F48-82AE-6106882544F2}">
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1347,15 +1353,15 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
     <row r="2" spans="2:19" ht="25" customHeight="1" thickBot="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1390,7 +1396,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="103" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -1421,7 +1427,7 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="33" t="s">
         <v>1</v>
       </c>
@@ -1450,7 +1456,7 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="95"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="33" t="s">
         <v>42</v>
       </c>
@@ -1479,7 +1485,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="95"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
@@ -1508,7 +1514,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:19" ht="17" thickBot="1">
-      <c r="B8" s="96"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="34" t="s">
         <v>44</v>
       </c>
@@ -1537,7 +1543,7 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="105" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1568,7 +1574,7 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="97"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1603,7 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="98"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="14" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1634,7 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="98"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1657,7 +1663,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
-      <c r="B13" s="99"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1692,7 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="108" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1718,7 +1724,7 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="100"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="16" t="s">
         <v>1</v>
       </c>
@@ -1748,7 +1754,7 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="100"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
@@ -1778,7 +1784,7 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="100"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
@@ -1807,7 +1813,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
-      <c r="B18" s="101"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="17" t="s">
         <v>44</v>
       </c>
@@ -1836,7 +1842,7 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1865,7 +1871,7 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="102"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1898,7 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="102"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="18" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +1925,7 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="102"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="18" t="s">
         <v>43</v>
       </c>
@@ -1929,7 +1935,7 @@
       <c r="E22" s="28">
         <v>0.33</v>
       </c>
-      <c r="F22" s="136">
+      <c r="F22" s="97">
         <v>0.36</v>
       </c>
       <c r="G22" s="28">
@@ -1948,7 +1954,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="103"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
@@ -1977,7 +1983,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="98" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -2008,7 +2014,7 @@
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="104"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="20" t="s">
         <v>1</v>
       </c>
@@ -2037,7 +2043,7 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="104"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="20" t="s">
         <v>42</v>
       </c>
@@ -2066,7 +2072,7 @@
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="104"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
@@ -2087,7 +2093,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1">
-      <c r="B28" s="105"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="21" t="s">
         <v>44</v>
       </c>
@@ -2142,14 +2148,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="2:14" ht="17" thickBot="1">
       <c r="B3" s="37" t="s">
@@ -2172,7 +2178,7 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="118" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -2197,7 +2203,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="110"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -2220,7 +2226,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="110"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -2243,7 +2249,7 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="110"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -2266,7 +2272,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="17" thickBot="1">
-      <c r="B8" s="111"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
@@ -2289,7 +2295,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -2315,7 +2321,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="113"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
       </c>
@@ -2339,7 +2345,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="113"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
@@ -2363,11 +2369,11 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="113"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="129">
+      <c r="D12" s="93">
         <v>0.26</v>
       </c>
       <c r="E12" s="45">
@@ -2387,7 +2393,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="114"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
@@ -2411,7 +2417,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="124" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -2437,7 +2443,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="116"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
       </c>
@@ -2461,7 +2467,7 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="116"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
       </c>
@@ -2484,7 +2490,7 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="116"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
@@ -2507,7 +2513,7 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="17" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
       </c>
@@ -2525,7 +2531,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -2550,7 +2556,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="119"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2579,7 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="119"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
       </c>
@@ -2596,7 +2602,7 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="119"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
@@ -2619,7 +2625,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="17" thickBot="1">
-      <c r="B23" s="120"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
       </c>
@@ -2642,7 +2648,7 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -2667,7 +2673,7 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="122"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -2690,7 +2696,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="122"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -2713,7 +2719,7 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="122"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -2736,7 +2742,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="17" thickBot="1">
-      <c r="B28" s="123"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -2820,14 +2826,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="2:14" ht="17" thickBot="1">
       <c r="B3" s="37" t="s">
@@ -2850,7 +2856,7 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="118" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -2870,7 +2876,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="110"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2894,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="110"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -2906,7 +2912,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="110"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -2924,7 +2930,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17" thickBot="1">
-      <c r="B8" s="111"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
@@ -2947,7 +2953,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -2973,7 +2979,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="113"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
       </c>
@@ -2989,15 +2995,15 @@
       <c r="G10" s="45">
         <v>0.47</v>
       </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="113"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
@@ -3013,15 +3019,15 @@
       <c r="G11" s="45">
         <v>0.47</v>
       </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="113"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
       </c>
@@ -3037,15 +3043,15 @@
       <c r="G12" s="45">
         <v>0.27</v>
       </c>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="114"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
@@ -3061,15 +3067,15 @@
       <c r="G13" s="47">
         <v>0.44</v>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="124" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -3087,22 +3093,22 @@
       <c r="G14" s="49">
         <v>2.39</v>
       </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="116"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="49">
         <v>0.46</v>
       </c>
-      <c r="E15" s="135">
+      <c r="E15" s="96">
         <v>0.51</v>
       </c>
       <c r="F15" s="49">
@@ -3111,14 +3117,14 @@
       <c r="G15" s="49">
         <v>0.45</v>
       </c>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="116"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
       </c>
@@ -3136,14 +3142,14 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="116"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="49">
         <v>0.3</v>
       </c>
-      <c r="E17" s="135">
+      <c r="E17" s="96">
         <v>0.36</v>
       </c>
       <c r="F17" s="49">
@@ -3154,7 +3160,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="17" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
       </c>
@@ -3172,7 +3178,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -3192,7 +3198,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="119"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
       </c>
@@ -3210,7 +3216,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="119"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
       </c>
@@ -3228,7 +3234,7 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="119"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3252,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="120"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
       </c>
@@ -3264,7 +3270,7 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -3284,7 +3290,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="122"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -3302,7 +3308,7 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="122"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -3320,7 +3326,7 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="122"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -3338,7 +3344,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="17" thickBot="1">
-      <c r="B28" s="123"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -3373,14 +3379,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88080FF-122E-2A4D-AEB0-1683C2720585}">
   <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
@@ -3394,17 +3400,17 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
     <row r="2" spans="2:19" ht="24" thickBot="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="124"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="130"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:19" ht="17" thickBot="1">
@@ -3445,7 +3451,7 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -3482,7 +3488,7 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="110"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -3517,7 +3523,7 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="110"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -3552,7 +3558,7 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="110"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -3587,7 +3593,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:19" ht="17" thickBot="1">
-      <c r="B8" s="110"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="39" t="s">
         <v>44</v>
       </c>
@@ -3623,7 +3629,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="17" customHeight="1">
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="131" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -3655,7 +3661,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="126"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="85" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3693,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="126"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="85" t="s">
         <v>42</v>
       </c>
@@ -3719,7 +3725,7 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="126"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="85" t="s">
         <v>43</v>
       </c>
@@ -3751,7 +3757,7 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
-      <c r="B13" s="127"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="86" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +3789,7 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="131" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="84" t="s">
@@ -3817,7 +3823,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="126"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="85" t="s">
         <v>1</v>
       </c>
@@ -3849,7 +3855,7 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="126"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="85" t="s">
         <v>42</v>
       </c>
@@ -3885,7 +3891,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="126"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="85" t="s">
         <v>43</v>
       </c>
@@ -3921,7 +3927,7 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
-      <c r="B18" s="127"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="86" t="s">
         <v>44</v>
       </c>
@@ -3957,8 +3963,8 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="125" t="s">
-        <v>39</v>
+      <c r="B19" s="131" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="84" t="s">
         <v>0</v>
@@ -3966,7 +3972,7 @@
       <c r="D19" s="87">
         <v>1.33</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="134" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="88">
@@ -3975,13 +3981,13 @@
       <c r="G19" s="88">
         <v>1.33</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="130" t="s">
+      <c r="I19" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="130" t="s">
+      <c r="J19" s="134" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="1"/>
@@ -3994,23 +4000,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="126"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="85" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="89">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E20" s="131"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="83">
         <v>0.62</v>
       </c>
       <c r="G20" s="83">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
       <c r="L20" s="1"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4021,23 +4027,23 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="126"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="85" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="89">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E21" s="131"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="83">
         <v>0.62</v>
       </c>
       <c r="G21" s="83">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
       <c r="L21" s="1"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4048,23 +4054,23 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="126"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="85" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="89">
         <v>0.48</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="135"/>
       <c r="F22" s="83">
         <v>0.56000000000000005</v>
       </c>
       <c r="G22" s="83">
         <v>0.52</v>
       </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4075,23 +4081,23 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="127"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="86" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="90">
         <v>0.48</v>
       </c>
-      <c r="E23" s="132"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="91">
         <v>0.59</v>
       </c>
       <c r="G23" s="91">
         <v>0.54</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
       <c r="L23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4102,7 +4108,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="122" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -4139,7 +4145,7 @@
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="113"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="44" t="s">
         <v>1</v>
       </c>
@@ -4174,7 +4180,7 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="113"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="44" t="s">
         <v>42</v>
       </c>
@@ -4209,7 +4215,7 @@
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="113"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="44" t="s">
         <v>43</v>
       </c>
@@ -4244,7 +4250,7 @@
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="46" t="s">
         <v>44</v>
       </c>
@@ -4271,7 +4277,7 @@
       </c>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="124" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -4300,7 +4306,7 @@
       </c>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="116"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="48" t="s">
         <v>1</v>
       </c>
@@ -4335,7 +4341,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="116"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4370,7 +4376,7 @@
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="116"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="48" t="s">
         <v>43</v>
       </c>
@@ -4405,7 +4411,7 @@
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="2:19" ht="17" thickBot="1">
-      <c r="B33" s="117"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="50" t="s">
         <v>44</v>
       </c>
@@ -4440,7 +4446,7 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="52" t="s">
@@ -4477,7 +4483,7 @@
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="119"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="52" t="s">
         <v>1</v>
       </c>
@@ -4512,7 +4518,7 @@
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="119"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="52" t="s">
         <v>42</v>
       </c>
@@ -4547,7 +4553,7 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="119"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="52" t="s">
         <v>43</v>
       </c>
@@ -4582,7 +4588,7 @@
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="2:19" ht="17" thickBot="1">
-      <c r="B38" s="120"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="54" t="s">
         <v>44</v>
       </c>
@@ -4617,7 +4623,7 @@
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="56" t="s">
@@ -4654,7 +4660,7 @@
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="122"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="56" t="s">
         <v>1</v>
       </c>
@@ -4689,7 +4695,7 @@
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="122"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="56" t="s">
         <v>42</v>
       </c>
@@ -4724,7 +4730,7 @@
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="122"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="56" t="s">
         <v>43</v>
       </c>
@@ -4751,7 +4757,7 @@
       </c>
     </row>
     <row r="43" spans="2:19" ht="17" thickBot="1">
-      <c r="B43" s="123"/>
+      <c r="B43" s="114"/>
       <c r="C43" s="58" t="s">
         <v>44</v>
       </c>
@@ -4829,6 +4835,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -4838,10 +4848,6 @@
     <mergeCell ref="I19:I23"/>
     <mergeCell ref="J19:J23"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,15 +4875,15 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
     <row r="2" spans="2:17" ht="24" thickBot="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="130"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickBot="1">
       <c r="B3" s="60" t="s">
@@ -4909,7 +4915,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="118" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -4939,7 +4945,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="110"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -4949,13 +4955,13 @@
       <c r="E5" s="40">
         <v>0.47</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="92">
         <v>0.19</v>
       </c>
-      <c r="G5" s="128">
-        <v>0.46</v>
-      </c>
-      <c r="H5" s="128">
+      <c r="G5" s="92">
+        <v>0.46</v>
+      </c>
+      <c r="H5" s="92">
         <v>0.46</v>
       </c>
       <c r="J5" s="1"/>
@@ -4967,7 +4973,7 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="110"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -4996,7 +5002,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="110"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -5025,7 +5031,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" ht="17" thickBot="1">
-      <c r="B8" s="111"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
@@ -5054,7 +5060,7 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -5084,11 +5090,11 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="113"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="93">
         <v>0.52</v>
       </c>
       <c r="E10" s="45">
@@ -5112,7 +5118,7 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="113"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
@@ -5140,11 +5146,11 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="113"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="129">
+      <c r="D12" s="93">
         <v>0.23</v>
       </c>
       <c r="E12" s="45">
@@ -5168,7 +5174,7 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" ht="17" thickBot="1">
-      <c r="B13" s="114"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
@@ -5195,7 +5201,7 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="124" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -5224,7 +5230,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="116"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
       </c>
@@ -5251,7 +5257,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="116"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
       </c>
@@ -5279,7 +5285,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="116"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
@@ -5307,7 +5313,7 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" ht="17" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
       </c>
@@ -5335,7 +5341,7 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -5365,7 +5371,7 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="119"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
       </c>
@@ -5393,7 +5399,7 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="119"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
       </c>
@@ -5420,7 +5426,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="119"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
@@ -5447,7 +5453,7 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="120"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
       </c>
@@ -5474,7 +5480,7 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -5503,7 +5509,7 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="122"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -5530,7 +5536,7 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="122"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -5557,7 +5563,7 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="122"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -5579,7 +5585,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:17" ht="17" thickBot="1">
-      <c r="B28" s="123"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>

--- a/Summary/summary_multinomial.xlsx
+++ b/Summary/summary_multinomial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBFFB30-77A6-494A-8774-009324E267B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D6651B-4D1D-FB42-A785-78348547A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="49">
   <si>
     <t>Loss</t>
   </si>
@@ -220,12 +220,16 @@
 Adding Noises</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AdpGauThresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,17 +311,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Var(--jp-content-font-family)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Var(--jp-content-font-family)"/>
     </font>
   </fonts>
   <fills count="15">
@@ -599,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,12 +873,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1331,16 +1318,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E29D67-F4BD-0F48-82AE-6106882544F2}">
-  <dimension ref="B1:S28"/>
+  <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
@@ -1353,15 +1340,15 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
     <row r="2" spans="2:19" ht="25" customHeight="1" thickBot="1">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1396,7 +1383,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -1427,7 +1414,7 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="33" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1443,7 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="103"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="33" t="s">
         <v>42</v>
       </c>
@@ -1485,7 +1472,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
@@ -1514,7 +1501,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:19" ht="17" thickBot="1">
-      <c r="B8" s="104"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="34" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1530,7 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="103" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1574,7 +1561,7 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1590,7 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="106"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="14" t="s">
         <v>42</v>
       </c>
@@ -1634,7 +1621,7 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="106"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1650,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
-      <c r="B13" s="107"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1679,7 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="106" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1715,16 +1702,16 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="108"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="16" t="s">
         <v>1</v>
       </c>
@@ -1745,7 +1732,7 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1754,7 +1741,7 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="108"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
@@ -1775,7 +1762,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1784,7 +1771,7 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="108"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
@@ -1805,15 +1792,16 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
-      <c r="B18" s="109"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="17" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1822,8 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1842,7 +1831,7 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="108" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1863,7 +1852,8 @@
       <c r="H19" s="10">
         <v>2.15</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1871,7 +1861,7 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="110"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1888,7 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="110"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="18" t="s">
         <v>42</v>
       </c>
@@ -1925,7 +1915,7 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="110"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="18" t="s">
         <v>43</v>
       </c>
@@ -1935,7 +1925,7 @@
       <c r="E22" s="28">
         <v>0.33</v>
       </c>
-      <c r="F22" s="97">
+      <c r="F22" s="95">
         <v>0.36</v>
       </c>
       <c r="G22" s="28">
@@ -1954,7 +1944,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="111"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
@@ -1983,7 +1973,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -2014,7 +2004,7 @@
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="98"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="20" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2033,7 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="98"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="20" t="s">
         <v>42</v>
       </c>
@@ -2072,7 +2062,7 @@
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="98"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
@@ -2093,7 +2083,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1">
-      <c r="B28" s="99"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="21" t="s">
         <v>44</v>
       </c>
@@ -2113,8 +2103,116 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="30">
+        <v>1.59</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F29" s="30">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1.21</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" s="111"/>
+      <c r="C30" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="E30" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="111"/>
+      <c r="C31" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="E31" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="111"/>
+      <c r="C32" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.33</v>
+      </c>
+      <c r="E32" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="G32" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17" thickBot="1">
+      <c r="B33" s="112"/>
+      <c r="C33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="F33" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="G33" s="31">
+        <v>0.39</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0.43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B8"/>
@@ -2129,16 +2227,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077D75E-3BED-AE4E-AC03-A6A12C77AAC6}">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
@@ -2148,14 +2246,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="2:14" ht="17" thickBot="1">
       <c r="B3" s="37" t="s">
@@ -2178,7 +2276,7 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="116" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -2203,7 +2301,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="119"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2324,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="119"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -2249,7 +2347,7 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="119"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2370,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="17" thickBot="1">
-      <c r="B8" s="120"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
@@ -2295,7 +2393,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -2321,7 +2419,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
       </c>
@@ -2345,7 +2443,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2467,7 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
       </c>
@@ -2393,7 +2491,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
@@ -2417,7 +2515,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -2443,7 +2541,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="125"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
       </c>
@@ -2460,14 +2558,14 @@
         <v>0.46</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="125"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
       </c>
@@ -2490,7 +2588,7 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="125"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
@@ -2513,7 +2611,7 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="17" thickBot="1">
-      <c r="B18" s="126"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
       </c>
@@ -2529,9 +2627,14 @@
       <c r="G18" s="51">
         <v>0.28999999999999998</v>
       </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -2550,13 +2653,13 @@
         <v>3.94</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="128"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
       </c>
@@ -2579,7 +2682,7 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="128"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
       </c>
@@ -2602,7 +2705,7 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="128"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
@@ -2625,7 +2728,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="17" thickBot="1">
-      <c r="B23" s="129"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
       </c>
@@ -2648,7 +2751,7 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="110" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -2673,7 +2776,7 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="113"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -2696,7 +2799,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="113"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2822,7 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="113"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -2742,7 +2845,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="17" thickBot="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -2765,6 +2868,24 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13">
+      <c r="B29" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="E29" s="57">
+        <v>1.22</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="G29" s="57">
+        <v>4.18</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2772,6 +2893,22 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13">
+      <c r="B30" s="111"/>
+      <c r="C30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="E30" s="57">
+        <v>0.48</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0.46</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2779,6 +2916,22 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13">
+      <c r="B31" s="111"/>
+      <c r="C31" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="E31" s="57">
+        <v>0.48</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0.46</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2786,14 +2939,49 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13">
+      <c r="B32" s="111"/>
+      <c r="C32" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="57">
+        <v>0.26</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="G32" s="57">
+        <v>0.13</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
+    <row r="33" spans="2:7" ht="17" thickBot="1">
+      <c r="B33" s="112"/>
+      <c r="C33" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.35</v>
+      </c>
+      <c r="F33" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G33" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
@@ -2808,16 +2996,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
-  <dimension ref="B1:N28"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
@@ -2826,14 +3014,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="2:14" ht="17" thickBot="1">
       <c r="B3" s="37" t="s">
@@ -2856,7 +3044,7 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="116" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -2876,7 +3064,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="119"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -2894,7 +3082,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="119"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -2912,7 +3100,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="119"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -2930,7 +3118,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17" thickBot="1">
-      <c r="B8" s="120"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
@@ -2953,7 +3141,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -2979,7 +3167,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
       </c>
@@ -2995,15 +3183,15 @@
       <c r="G10" s="45">
         <v>0.47</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
@@ -3019,15 +3207,15 @@
       <c r="G11" s="45">
         <v>0.47</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
       </c>
@@ -3043,15 +3231,15 @@
       <c r="G12" s="45">
         <v>0.27</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
@@ -3067,15 +3255,15 @@
       <c r="G13" s="47">
         <v>0.44</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -3093,22 +3281,22 @@
       <c r="G14" s="49">
         <v>2.39</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="125"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="49">
         <v>0.46</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="94">
         <v>0.51</v>
       </c>
       <c r="F15" s="49">
@@ -3117,14 +3305,14 @@
       <c r="G15" s="49">
         <v>0.45</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="125"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
       </c>
@@ -3142,14 +3330,14 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="125"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="49">
         <v>0.3</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="94">
         <v>0.36</v>
       </c>
       <c r="F17" s="49">
@@ -3160,7 +3348,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="17" thickBot="1">
-      <c r="B18" s="126"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
       </c>
@@ -3178,7 +3366,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -3198,7 +3386,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="128"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
       </c>
@@ -3216,7 +3404,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="128"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
       </c>
@@ -3234,7 +3422,7 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="128"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
@@ -3252,7 +3440,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="129"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
       </c>
@@ -3270,7 +3458,7 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="110" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -3290,7 +3478,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="113"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -3308,7 +3496,7 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="113"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -3326,7 +3514,7 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="113"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -3344,7 +3532,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="17" thickBot="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -3361,8 +3549,101 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="57">
+        <v>1.62</v>
+      </c>
+      <c r="E29" s="57">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G29" s="57">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="111"/>
+      <c r="C30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="E30" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="111"/>
+      <c r="C31" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="E31" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="111"/>
+      <c r="C32" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="57">
+        <v>0.32</v>
+      </c>
+      <c r="E32" s="57">
+        <v>0.37</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0.39</v>
+      </c>
+      <c r="G32" s="57">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="17" thickBot="1">
+      <c r="B33" s="112"/>
+      <c r="C33" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="59">
+        <v>0.49</v>
+      </c>
+      <c r="G33" s="59">
+        <v>0.47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
@@ -3379,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88080FF-122E-2A4D-AEB0-1683C2720585}">
   <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3400,17 +3681,17 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
     <row r="2" spans="2:19" ht="24" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="130"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:19" ht="17" thickBot="1">
@@ -3451,7 +3732,7 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -3488,7 +3769,7 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="119"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3804,7 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="119"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -3558,7 +3839,7 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="119"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -3593,7 +3874,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:19" ht="17" thickBot="1">
-      <c r="B8" s="119"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="39" t="s">
         <v>44</v>
       </c>
@@ -3629,7 +3910,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="17" customHeight="1">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="129" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -3661,7 +3942,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="132"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="85" t="s">
         <v>1</v>
       </c>
@@ -3693,7 +3974,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="132"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="85" t="s">
         <v>42</v>
       </c>
@@ -3725,7 +4006,7 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="132"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="85" t="s">
         <v>43</v>
       </c>
@@ -3757,7 +4038,7 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
-      <c r="B13" s="133"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="86" t="s">
         <v>44</v>
       </c>
@@ -3789,7 +4070,7 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="129" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="84" t="s">
@@ -3823,7 +4104,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="132"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="85" t="s">
         <v>1</v>
       </c>
@@ -3855,7 +4136,7 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="132"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="85" t="s">
         <v>42</v>
       </c>
@@ -3891,7 +4172,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="132"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="85" t="s">
         <v>43</v>
       </c>
@@ -3927,7 +4208,7 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
-      <c r="B18" s="133"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="86" t="s">
         <v>44</v>
       </c>
@@ -3963,7 +4244,7 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="129" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="84" t="s">
@@ -3972,7 +4253,7 @@
       <c r="D19" s="87">
         <v>1.33</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="132" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="88">
@@ -3981,13 +4262,13 @@
       <c r="G19" s="88">
         <v>1.33</v>
       </c>
-      <c r="H19" s="134" t="s">
+      <c r="H19" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="134" t="s">
+      <c r="I19" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="134" t="s">
+      <c r="J19" s="132" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="1"/>
@@ -4000,23 +4281,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="132"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="85" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="89">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E20" s="135"/>
+      <c r="E20" s="133"/>
       <c r="F20" s="83">
         <v>0.62</v>
       </c>
       <c r="G20" s="83">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
       <c r="L20" s="1"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4027,23 +4308,23 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="132"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="85" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="89">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E21" s="135"/>
+      <c r="E21" s="133"/>
       <c r="F21" s="83">
         <v>0.62</v>
       </c>
       <c r="G21" s="83">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
       <c r="L21" s="1"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4054,23 +4335,23 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="132"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="85" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="89">
         <v>0.48</v>
       </c>
-      <c r="E22" s="135"/>
+      <c r="E22" s="133"/>
       <c r="F22" s="83">
         <v>0.56000000000000005</v>
       </c>
       <c r="G22" s="83">
         <v>0.52</v>
       </c>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4081,23 +4362,23 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="133"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="86" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="90">
         <v>0.48</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="91">
         <v>0.59</v>
       </c>
       <c r="G23" s="91">
         <v>0.54</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
       <c r="L23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4108,7 +4389,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="120" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -4145,7 +4426,7 @@
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="122"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="44" t="s">
         <v>1</v>
       </c>
@@ -4180,7 +4461,7 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="122"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="44" t="s">
         <v>42</v>
       </c>
@@ -4215,7 +4496,7 @@
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="122"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="44" t="s">
         <v>43</v>
       </c>
@@ -4250,7 +4531,7 @@
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1">
-      <c r="B28" s="123"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="46" t="s">
         <v>44</v>
       </c>
@@ -4277,7 +4558,7 @@
       </c>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -4304,9 +4585,17 @@
       <c r="J29" s="68">
         <v>0.98</v>
       </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="125"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="48" t="s">
         <v>1</v>
       </c>
@@ -4332,16 +4621,16 @@
         <v>0.6</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="125"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4376,7 +4665,7 @@
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="125"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="48" t="s">
         <v>43</v>
       </c>
@@ -4411,7 +4700,7 @@
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="2:19" ht="17" thickBot="1">
-      <c r="B33" s="126"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="50" t="s">
         <v>44</v>
       </c>
@@ -4446,7 +4735,7 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="52" t="s">
@@ -4483,7 +4772,7 @@
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="128"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="52" t="s">
         <v>1</v>
       </c>
@@ -4518,7 +4807,7 @@
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="128"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="52" t="s">
         <v>42</v>
       </c>
@@ -4553,7 +4842,7 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="128"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="52" t="s">
         <v>43</v>
       </c>
@@ -4588,7 +4877,7 @@
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="2:19" ht="17" thickBot="1">
-      <c r="B38" s="129"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="54" t="s">
         <v>44</v>
       </c>
@@ -4623,7 +4912,7 @@
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="110" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="56" t="s">
@@ -4660,7 +4949,7 @@
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="113"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="56" t="s">
         <v>1</v>
       </c>
@@ -4695,7 +4984,7 @@
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="113"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="56" t="s">
         <v>42</v>
       </c>
@@ -4730,7 +5019,7 @@
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="113"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="56" t="s">
         <v>43</v>
       </c>
@@ -4757,7 +5046,7 @@
       </c>
     </row>
     <row r="43" spans="2:19" ht="17" thickBot="1">
-      <c r="B43" s="114"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="58" t="s">
         <v>44</v>
       </c>
@@ -4783,35 +5072,142 @@
         <v>0.44</v>
       </c>
     </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="57">
+        <v>1.03</v>
+      </c>
+      <c r="E44" s="57">
+        <v>1.24</v>
+      </c>
+      <c r="F44" s="57">
+        <v>1.03</v>
+      </c>
+      <c r="G44" s="57">
+        <v>0.96</v>
+      </c>
+      <c r="H44" s="79">
+        <v>1.05</v>
+      </c>
+      <c r="I44" s="80">
+        <v>0.87</v>
+      </c>
+      <c r="J44" s="80">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="111"/>
+      <c r="C45" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E45" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="F45" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="G45" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H45" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="I45" s="57">
+        <v>0.62</v>
+      </c>
+      <c r="J45" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="46" spans="2:19">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E46" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="F46" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="G46" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H46" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="I46" s="57">
+        <v>0.62</v>
+      </c>
+      <c r="J46" s="57">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47" spans="2:19">
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:19">
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="57">
+        <v>0.51</v>
+      </c>
+      <c r="E47" s="57">
+        <v>0.54</v>
+      </c>
+      <c r="F47" s="57">
+        <v>0.53</v>
+      </c>
+      <c r="G47" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="H47" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="I47" s="57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J47" s="57">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="17" thickBot="1">
+      <c r="B48" s="112"/>
+      <c r="C48" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0.54</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F48" s="59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G48" s="59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H48" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="59">
+        <v>0.61</v>
+      </c>
+      <c r="J48" s="59">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="49" spans="3:10">
       <c r="C49" s="1"/>
@@ -4834,7 +5230,8 @@
       <c r="J50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B44:B48"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B34:B38"/>
@@ -4858,13 +5255,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1F63B-5678-5E43-809D-46E26AC7998F}">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
@@ -4875,15 +5273,15 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
     <row r="2" spans="2:17" ht="24" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickBot="1">
       <c r="B3" s="60" t="s">
@@ -4915,7 +5313,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="116" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -4945,7 +5343,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="119"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
@@ -4973,7 +5371,7 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="119"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
@@ -5002,7 +5400,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="119"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
       </c>
@@ -5031,7 +5429,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" ht="17" thickBot="1">
-      <c r="B8" s="120"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
       </c>
@@ -5060,7 +5458,7 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -5090,7 +5488,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
       </c>
@@ -5118,7 +5516,7 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
@@ -5146,7 +5544,7 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
       </c>
@@ -5174,7 +5572,7 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" ht="17" thickBot="1">
-      <c r="B13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
@@ -5201,7 +5599,7 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -5230,7 +5628,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="125"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
       </c>
@@ -5257,7 +5655,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="125"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
       </c>
@@ -5285,7 +5683,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="125"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
@@ -5304,16 +5702,17 @@
       <c r="H17" s="70">
         <v>0.1</v>
       </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" ht="17" thickBot="1">
-      <c r="B18" s="126"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
       </c>
@@ -5332,16 +5731,17 @@
       <c r="H18" s="72">
         <v>0.13</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -5362,16 +5762,17 @@
       <c r="H19" s="74">
         <v>17.850000000000001</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="128"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
       </c>
@@ -5390,16 +5791,17 @@
       <c r="H20" s="76">
         <v>0.25</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="128"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
       </c>
@@ -5418,15 +5820,16 @@
       <c r="H21" s="76">
         <v>0.25</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="128"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
@@ -5445,7 +5848,8 @@
       <c r="H22" s="76">
         <v>0.16</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5453,7 +5857,7 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="129"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
       </c>
@@ -5480,7 +5884,7 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="110" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -5509,7 +5913,7 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="113"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -5536,7 +5940,7 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="113"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -5563,7 +5967,7 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="113"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -5585,7 +5989,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:17" ht="17" thickBot="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -5605,35 +6009,121 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="57">
+        <v>1.24</v>
+      </c>
+      <c r="E29" s="57">
+        <v>3.42</v>
+      </c>
+      <c r="F29" s="79">
+        <v>241.6</v>
+      </c>
+      <c r="G29" s="80">
+        <v>10.36</v>
+      </c>
+      <c r="H29" s="80">
+        <v>79.05</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="111"/>
+      <c r="C30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="E30" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="F30" s="81">
+        <v>0.19</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="H30" s="57">
+        <v>0.46</v>
+      </c>
+    </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="E31" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="F31" s="81">
+        <v>0.19</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="H31" s="57">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="B32" s="111"/>
+      <c r="C32" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="F32" s="81">
+        <v>0.06</v>
+      </c>
+      <c r="G32" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="H32" s="57">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17" thickBot="1">
+      <c r="B33" s="112"/>
+      <c r="C33" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F33" s="82">
+        <v>0.06</v>
+      </c>
+      <c r="G33" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H33" s="59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:8">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5641,7 +6131,8 @@
       <c r="F35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B8"/>

--- a/Summary/summary_multinomial.xlsx
+++ b/Summary/summary_multinomial.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D6651B-4D1D-FB42-A785-78348547A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7D099-5B9F-D84D-B717-80BEE66DB6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
   </bookViews>
   <sheets>
-    <sheet name="VGG" sheetId="1" r:id="rId1"/>
-    <sheet name="Residual" sheetId="2" r:id="rId2"/>
-    <sheet name="Inception" sheetId="3" r:id="rId3"/>
-    <sheet name="Standalone TL" sheetId="4" r:id="rId4"/>
-    <sheet name="Embedded TL" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary" sheetId="6" r:id="rId1"/>
+    <sheet name="VGG" sheetId="1" r:id="rId2"/>
+    <sheet name="Residual" sheetId="2" r:id="rId3"/>
+    <sheet name="Inception" sheetId="3" r:id="rId4"/>
+    <sheet name="Standalone TL" sheetId="4" r:id="rId5"/>
+    <sheet name="Embedded TL" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="55">
   <si>
     <t>Loss</t>
   </si>
@@ -222,6 +223,30 @@
   </si>
   <si>
     <t>AdpGauThresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-VGG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-Inception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-Residual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-Standalone-TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-Embedded-TF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,6 +906,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,15 +957,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,6 +1022,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,11 +1393,599 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61670E02-1A8B-0C49-ADE7-9A17B66032FF}">
+  <dimension ref="B1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1"/>
+    <row r="2" spans="2:8" ht="24" thickBot="1">
+      <c r="B2" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickBot="1">
+      <c r="B3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E4" s="83">
+        <v>1.17</v>
+      </c>
+      <c r="F4" s="83">
+        <v>3.96</v>
+      </c>
+      <c r="G4" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="H4" s="83">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="104"/>
+      <c r="C5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="E5" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="83">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="89">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="83">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="104"/>
+      <c r="C6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="83">
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="83">
+        <v>0.27</v>
+      </c>
+      <c r="G6" s="89">
+        <v>0.59</v>
+      </c>
+      <c r="H6" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1">
+      <c r="B7" s="105"/>
+      <c r="C7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.47</v>
+      </c>
+      <c r="F7" s="91">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="91">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1.42</v>
+      </c>
+      <c r="E8" s="135">
+        <v>1.25</v>
+      </c>
+      <c r="F8" s="135">
+        <v>1.36</v>
+      </c>
+      <c r="G8" s="135">
+        <v>0.98</v>
+      </c>
+      <c r="H8" s="135">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="107"/>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="E9" s="135">
+        <v>0.44</v>
+      </c>
+      <c r="F9" s="135">
+        <v>0.46</v>
+      </c>
+      <c r="G9" s="135">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H9" s="135">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="107"/>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="E10" s="135">
+        <v>0.32</v>
+      </c>
+      <c r="F10" s="135">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="135">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H10" s="135">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17" thickBot="1">
+      <c r="B11" s="108"/>
+      <c r="C11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="136">
+        <v>0.44</v>
+      </c>
+      <c r="F11" s="136">
+        <v>0.43</v>
+      </c>
+      <c r="G11" s="136">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11" s="136">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1.18</v>
+      </c>
+      <c r="E12" s="137">
+        <v>1.45</v>
+      </c>
+      <c r="F12" s="137">
+        <v>1.29</v>
+      </c>
+      <c r="G12" s="149">
+        <v>0.98</v>
+      </c>
+      <c r="H12" s="137">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="109"/>
+      <c r="C13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="E13" s="137">
+        <v>0.51</v>
+      </c>
+      <c r="F13" s="137">
+        <v>0.46</v>
+      </c>
+      <c r="G13" s="150">
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="137">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="109"/>
+      <c r="C14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="137">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="137">
+        <v>0.13</v>
+      </c>
+      <c r="G14" s="150">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H14" s="137">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="17" thickBot="1">
+      <c r="B15" s="110"/>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="E15" s="138">
+        <v>0.48</v>
+      </c>
+      <c r="F15" s="138">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G15" s="151">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H15" s="138">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16" s="139">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="139">
+        <v>1.43</v>
+      </c>
+      <c r="G16" s="139">
+        <v>1.03</v>
+      </c>
+      <c r="H16" s="139">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="111"/>
+      <c r="C17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.52</v>
+      </c>
+      <c r="E17" s="139">
+        <v>0.45</v>
+      </c>
+      <c r="F17" s="139">
+        <v>0.46</v>
+      </c>
+      <c r="G17" s="139">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H17" s="139">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="111"/>
+      <c r="C18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="E18" s="139">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="139">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G18" s="139">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H18" s="139">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17" thickBot="1">
+      <c r="B19" s="112"/>
+      <c r="C19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="140">
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="140">
+        <v>0.31</v>
+      </c>
+      <c r="G19" s="140">
+        <v>0.54</v>
+      </c>
+      <c r="H19" s="140">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1.55</v>
+      </c>
+      <c r="E20" s="141">
+        <v>1.39</v>
+      </c>
+      <c r="F20" s="141">
+        <v>1.29</v>
+      </c>
+      <c r="G20" s="141">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H20" s="141">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="99"/>
+      <c r="C21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.43</v>
+      </c>
+      <c r="E21" s="141">
+        <v>0.46</v>
+      </c>
+      <c r="F21" s="141">
+        <v>0.46</v>
+      </c>
+      <c r="G21" s="141">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H21" s="141">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="99"/>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="E22" s="141">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="141">
+        <v>0.13</v>
+      </c>
+      <c r="G22" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="141">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17" thickBot="1">
+      <c r="B23" s="100"/>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.36</v>
+      </c>
+      <c r="E23" s="143">
+        <v>0.41</v>
+      </c>
+      <c r="F23" s="143">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G23" s="143">
+        <v>0.52</v>
+      </c>
+      <c r="H23" s="143">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1.59</v>
+      </c>
+      <c r="E24" s="141">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F24" s="141">
+        <v>1.22</v>
+      </c>
+      <c r="G24" s="145">
+        <v>1.05</v>
+      </c>
+      <c r="H24" s="142">
+        <v>79.05</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="99"/>
+      <c r="C25" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="E25" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="141">
+        <v>0.48</v>
+      </c>
+      <c r="G25" s="146">
+        <v>0.6</v>
+      </c>
+      <c r="H25" s="141">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="99"/>
+      <c r="C26" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.33</v>
+      </c>
+      <c r="E26" s="141">
+        <v>0.39</v>
+      </c>
+      <c r="F26" s="141">
+        <v>0.26</v>
+      </c>
+      <c r="G26" s="146">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="141">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17" thickBot="1">
+      <c r="B27" s="100"/>
+      <c r="C27" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="E27" s="143">
+        <v>0.49</v>
+      </c>
+      <c r="F27" s="143">
+        <v>0.35</v>
+      </c>
+      <c r="G27" s="148">
+        <v>0.6</v>
+      </c>
+      <c r="H27" s="143">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E29D67-F4BD-0F48-82AE-6106882544F2}">
-  <dimension ref="B1:S33"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1338,21 +2002,21 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17" thickBot="1"/>
-    <row r="2" spans="2:19" ht="25" customHeight="1" thickBot="1">
-      <c r="B2" s="98" t="s">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12" ht="25" customHeight="1" thickBot="1">
+      <c r="B2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:19" ht="17" thickBot="1">
+    <row r="3" spans="2:12" ht="17" thickBot="1">
       <c r="B3" s="35" t="s">
         <v>32</v>
       </c>
@@ -1374,16 +2038,9 @@
       <c r="H3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="101" t="s">
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="104" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -1404,17 +2061,11 @@
       <c r="H4" s="4">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="101"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="104"/>
       <c r="C5" s="33" t="s">
         <v>1</v>
       </c>
@@ -1433,17 +2084,11 @@
       <c r="H5" s="4">
         <v>0.48</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="101"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="104"/>
       <c r="C6" s="33" t="s">
         <v>42</v>
       </c>
@@ -1462,17 +2107,11 @@
       <c r="H6" s="4">
         <v>0.48</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="101"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="104"/>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
@@ -1491,17 +2130,11 @@
       <c r="H7" s="4">
         <v>0.32</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="2:19" ht="17" thickBot="1">
-      <c r="B8" s="102"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="17" thickBot="1">
+      <c r="B8" s="105"/>
       <c r="C8" s="34" t="s">
         <v>44</v>
       </c>
@@ -1520,17 +2153,11 @@
       <c r="H8" s="5">
         <v>0.45</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="103" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="106" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1551,17 +2178,13 @@
       <c r="H9" s="6">
         <v>2.19</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="103"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="106"/>
       <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
@@ -1580,17 +2203,13 @@
       <c r="H10" s="6">
         <v>0.52</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="104"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="107"/>
       <c r="C11" s="14" t="s">
         <v>42</v>
       </c>
@@ -1609,19 +2228,13 @@
       <c r="H11" s="6">
         <v>0.52</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="104"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="107"/>
       <c r="C12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1640,17 +2253,11 @@
       <c r="H12" s="6">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:19" ht="17" thickBot="1">
-      <c r="B13" s="105"/>
+    </row>
+    <row r="13" spans="2:12" ht="17" thickBot="1">
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
@@ -1669,17 +2276,11 @@
       <c r="H13" s="7">
         <v>0.46</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="106" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="109" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1700,18 +2301,11 @@
       <c r="H14" s="8">
         <v>2.23</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="106"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="109"/>
       <c r="C15" s="16" t="s">
         <v>1</v>
       </c>
@@ -1731,17 +2325,10 @@
         <v>0.46</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="106"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="109"/>
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
@@ -1761,17 +2348,10 @@
         <v>0.46</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="106"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="109"/>
       <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
@@ -1791,17 +2371,10 @@
         <v>0.26</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="2:19" ht="17" thickBot="1">
-      <c r="B18" s="107"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" ht="17" thickBot="1">
+      <c r="B18" s="110"/>
       <c r="C18" s="17" t="s">
         <v>44</v>
       </c>
@@ -1822,16 +2395,9 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="108" t="s">
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="111" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1852,16 +2418,11 @@
       <c r="H19" s="10">
         <v>2.15</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="108"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="111"/>
       <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
@@ -1880,15 +2441,11 @@
       <c r="H20" s="10">
         <v>0.5</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="108"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="111"/>
       <c r="C21" s="18" t="s">
         <v>42</v>
       </c>
@@ -1907,15 +2464,11 @@
       <c r="H21" s="10">
         <v>0.5</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="108"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="111"/>
       <c r="C22" s="18" t="s">
         <v>43</v>
       </c>
@@ -1934,17 +2487,13 @@
       <c r="H22" s="10">
         <v>0.3</v>
       </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="109"/>
+    </row>
+    <row r="23" spans="2:12" ht="17" thickBot="1">
+      <c r="B23" s="112"/>
       <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
@@ -1963,17 +2512,13 @@
       <c r="H23" s="11">
         <v>0.47</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="96" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="99" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -1994,17 +2539,13 @@
       <c r="H24" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="96"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="99"/>
       <c r="C25" s="20" t="s">
         <v>1</v>
       </c>
@@ -2023,17 +2564,13 @@
       <c r="H25" s="12">
         <v>0.46</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="96"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="99"/>
       <c r="C26" s="20" t="s">
         <v>42</v>
       </c>
@@ -2052,17 +2589,13 @@
       <c r="H26" s="12">
         <v>0.46</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="96"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="99"/>
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
@@ -2082,8 +2615,8 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="17" thickBot="1">
-      <c r="B28" s="97"/>
+    <row r="28" spans="2:12" ht="17" thickBot="1">
+      <c r="B28" s="100"/>
       <c r="C28" s="21" t="s">
         <v>44</v>
       </c>
@@ -2103,8 +2636,8 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="110" t="s">
+    <row r="29" spans="2:12">
+      <c r="B29" s="96" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -2126,8 +2659,8 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:19">
-      <c r="B30" s="111"/>
+    <row r="30" spans="2:12">
+      <c r="B30" s="97"/>
       <c r="C30" s="20" t="s">
         <v>1</v>
       </c>
@@ -2147,8 +2680,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
-      <c r="B31" s="111"/>
+    <row r="31" spans="2:12">
+      <c r="B31" s="97"/>
       <c r="C31" s="20" t="s">
         <v>42</v>
       </c>
@@ -2168,8 +2701,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="111"/>
+    <row r="32" spans="2:12">
+      <c r="B32" s="97"/>
       <c r="C32" s="20" t="s">
         <v>43</v>
       </c>
@@ -2190,7 +2723,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="17" thickBot="1">
-      <c r="B33" s="112"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="21" t="s">
         <v>44</v>
       </c>
@@ -2225,18 +2758,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077D75E-3BED-AE4E-AC03-A6A12C77AAC6}">
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B33"/>
+      <selection activeCell="J3" sqref="I3:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
@@ -2244,8 +2778,8 @@
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1"/>
-    <row r="2" spans="2:14" ht="24" thickBot="1">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12" ht="24" thickBot="1">
       <c r="B2" s="113" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2789,7 @@
       <c r="F2" s="114"/>
       <c r="G2" s="115"/>
     </row>
-    <row r="3" spans="2:14" ht="17" thickBot="1">
+    <row r="3" spans="2:12" ht="17" thickBot="1">
       <c r="B3" s="37" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +2809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:12">
       <c r="B4" s="116" t="s">
         <v>35</v>
       </c>
@@ -2297,10 +2831,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:14">
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="117"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
@@ -2317,13 +2849,11 @@
       <c r="G5" s="41">
         <v>0.51</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:14">
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="117"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
@@ -2340,13 +2870,11 @@
       <c r="G6" s="40">
         <v>0.51</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:14">
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="117"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
@@ -2363,13 +2891,11 @@
       <c r="G7" s="41">
         <v>0.27</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1">
+    </row>
+    <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="118"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
@@ -2386,13 +2912,11 @@
       <c r="G8" s="43">
         <v>0.4</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:14">
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="119" t="s">
         <v>23</v>
       </c>
@@ -2411,14 +2935,12 @@
       <c r="G9" s="45">
         <v>3.87</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="120"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
@@ -2435,14 +2957,12 @@
       <c r="G10" s="45">
         <v>0.46</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14">
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="120"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
@@ -2459,14 +2979,12 @@
       <c r="G11" s="45">
         <v>0.46</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14">
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="120"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
@@ -2486,11 +3004,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickBot="1">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
@@ -2507,14 +3023,12 @@
       <c r="G13" s="47">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:14">
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="122" t="s">
         <v>25</v>
       </c>
@@ -2533,14 +3047,12 @@
       <c r="G14" s="49">
         <v>4.17</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14">
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="123"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
@@ -2560,11 +3072,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="123"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
@@ -2581,11 +3091,9 @@
       <c r="G16" s="49">
         <v>0.46</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="123"/>
@@ -2604,11 +3112,9 @@
       <c r="G17" s="49">
         <v>0.13</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="17" thickBot="1">
       <c r="B18" s="124"/>
@@ -2627,11 +3133,9 @@
       <c r="G18" s="51">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="125" t="s">
@@ -2652,11 +3156,9 @@
       <c r="G19" s="53">
         <v>3.94</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="126"/>
@@ -2675,11 +3177,9 @@
       <c r="G20" s="53">
         <v>0.46</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="126"/>
@@ -2698,11 +3198,9 @@
       <c r="G21" s="53">
         <v>0.46</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="126"/>
@@ -2721,11 +3219,9 @@
       <c r="G22" s="53">
         <v>0.13</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="17" thickBot="1">
       <c r="B23" s="127"/>
@@ -2744,14 +3240,12 @@
       <c r="G23" s="55">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="96" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -2769,14 +3263,12 @@
       <c r="G24" s="57">
         <v>4.25</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="111"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -2795,11 +3287,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="111"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -2815,14 +3305,12 @@
       <c r="G26" s="57">
         <v>0.46</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="111"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -2841,11 +3329,9 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="17" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -2861,14 +3347,12 @@
       <c r="G28" s="59">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="96" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -2886,14 +3370,13 @@
       <c r="G29" s="57">
         <v>4.18</v>
       </c>
-      <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="111"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="56" t="s">
         <v>1</v>
       </c>
@@ -2909,14 +3392,13 @@
       <c r="G30" s="57">
         <v>0.46</v>
       </c>
-      <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="111"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="56" t="s">
         <v>42</v>
       </c>
@@ -2932,14 +3414,13 @@
       <c r="G31" s="57">
         <v>0.46</v>
       </c>
-      <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="111"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="56" t="s">
         <v>43</v>
       </c>
@@ -2955,14 +3436,12 @@
       <c r="G32" s="57">
         <v>0.13</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="17" thickBot="1">
-      <c r="B33" s="112"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="58" t="s">
         <v>44</v>
       </c>
@@ -2977,668 +3456,6 @@
       </c>
       <c r="G33" s="59">
         <v>0.28999999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
-  <dimension ref="B1:N33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1"/>
-    <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
-    </row>
-    <row r="3" spans="2:14" ht="17" thickBot="1">
-      <c r="B3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="40">
-        <v>1.51</v>
-      </c>
-      <c r="E4" s="40">
-        <v>1.17</v>
-      </c>
-      <c r="F4" s="40">
-        <v>1.17</v>
-      </c>
-      <c r="G4" s="40">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="117"/>
-      <c r="C5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0.46</v>
-      </c>
-      <c r="E5" s="83">
-        <v>0.48</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="117"/>
-      <c r="C6" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0.48</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="40">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="117"/>
-      <c r="C7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.27</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0.36</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1">
-      <c r="B8" s="118"/>
-      <c r="C8" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0.44</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0.46</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0.47</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0.45</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="45">
-        <v>1.86</v>
-      </c>
-      <c r="E9" s="45">
-        <v>1.25</v>
-      </c>
-      <c r="F9" s="45">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G9" s="45">
-        <v>2.33</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="120"/>
-      <c r="C10" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0.46</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.44</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0.48</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0.47</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="120"/>
-      <c r="C11" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0.46</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.44</v>
-      </c>
-      <c r="F11" s="45">
-        <v>0.48</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0.47</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="120"/>
-      <c r="C12" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="45">
-        <v>0.31</v>
-      </c>
-      <c r="E12" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G12" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="121"/>
-      <c r="C13" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="47">
-        <v>0.44</v>
-      </c>
-      <c r="E13" s="47">
-        <v>0.44</v>
-      </c>
-      <c r="F13" s="47">
-        <v>0.45</v>
-      </c>
-      <c r="G13" s="47">
-        <v>0.44</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="49">
-        <v>2.31</v>
-      </c>
-      <c r="E14" s="49">
-        <v>1.45</v>
-      </c>
-      <c r="F14" s="49">
-        <v>1.22</v>
-      </c>
-      <c r="G14" s="49">
-        <v>2.39</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="123"/>
-      <c r="C15" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0.46</v>
-      </c>
-      <c r="E15" s="94">
-        <v>0.51</v>
-      </c>
-      <c r="F15" s="49">
-        <v>0.43</v>
-      </c>
-      <c r="G15" s="49">
-        <v>0.45</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="123"/>
-      <c r="C16" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="49">
-        <v>0.46</v>
-      </c>
-      <c r="E16" s="49">
-        <v>0.51</v>
-      </c>
-      <c r="F16" s="49">
-        <v>0.43</v>
-      </c>
-      <c r="G16" s="49">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="123"/>
-      <c r="C17" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="94">
-        <v>0.36</v>
-      </c>
-      <c r="F17" s="49">
-        <v>0.34</v>
-      </c>
-      <c r="G17" s="49">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17" thickBot="1">
-      <c r="B18" s="124"/>
-      <c r="C18" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="51">
-        <v>0.44</v>
-      </c>
-      <c r="E18" s="51">
-        <v>0.48</v>
-      </c>
-      <c r="F18" s="51">
-        <v>0.42</v>
-      </c>
-      <c r="G18" s="51">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="53">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="E19" s="53">
-        <v>1.67</v>
-      </c>
-      <c r="F19" s="53">
-        <v>1.22</v>
-      </c>
-      <c r="G19" s="53">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="126"/>
-      <c r="C20" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="53">
-        <v>0.43</v>
-      </c>
-      <c r="E20" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="F20" s="53">
-        <v>0.47</v>
-      </c>
-      <c r="G20" s="53">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="126"/>
-      <c r="C21" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="53">
-        <v>0.43</v>
-      </c>
-      <c r="E21" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="F21" s="53">
-        <v>0.47</v>
-      </c>
-      <c r="G21" s="53">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="126"/>
-      <c r="C22" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="53">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E22" s="53">
-        <v>0.33</v>
-      </c>
-      <c r="F22" s="53">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G22" s="53">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="127"/>
-      <c r="C23" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="55">
-        <v>0.43</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0.44</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0.44</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="57">
-        <v>1.39</v>
-      </c>
-      <c r="E24" s="57">
-        <v>1.24</v>
-      </c>
-      <c r="F24" s="57">
-        <v>1.22</v>
-      </c>
-      <c r="G24" s="57">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="111"/>
-      <c r="C25" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="E25" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="F25" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="G25" s="57">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="111"/>
-      <c r="C26" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="E26" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="F26" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="G26" s="57">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="111"/>
-      <c r="C27" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="57">
-        <v>0.13</v>
-      </c>
-      <c r="F27" s="57">
-        <v>0.17</v>
-      </c>
-      <c r="G27" s="57">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="17" thickBot="1">
-      <c r="B28" s="112"/>
-      <c r="C28" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="59">
-        <v>0.41</v>
-      </c>
-      <c r="E28" s="59">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F28" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="59">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="57">
-        <v>1.62</v>
-      </c>
-      <c r="E29" s="57">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F29" s="57">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G29" s="57">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="111"/>
-      <c r="C30" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="57">
-        <v>0.45</v>
-      </c>
-      <c r="E30" s="57">
-        <v>0.52</v>
-      </c>
-      <c r="F30" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="57">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="111"/>
-      <c r="C31" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="57">
-        <v>0.45</v>
-      </c>
-      <c r="E31" s="57">
-        <v>0.52</v>
-      </c>
-      <c r="F31" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="57">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="111"/>
-      <c r="C32" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="57">
-        <v>0.32</v>
-      </c>
-      <c r="E32" s="57">
-        <v>0.37</v>
-      </c>
-      <c r="F32" s="57">
-        <v>0.39</v>
-      </c>
-      <c r="G32" s="57">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="17" thickBot="1">
-      <c r="B33" s="112"/>
-      <c r="C33" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="59">
-        <v>0.45</v>
-      </c>
-      <c r="E33" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="59">
-        <v>0.49</v>
-      </c>
-      <c r="G33" s="59">
-        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -3657,10 +3474,657 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
+  <dimension ref="B1:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J7" sqref="H7:J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11" ht="24" thickBot="1">
+      <c r="B2" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" spans="2:11" ht="17" thickBot="1">
+      <c r="B3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1.51</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1.17</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1.17</v>
+      </c>
+      <c r="G4" s="40">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="117"/>
+      <c r="C5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.46</v>
+      </c>
+      <c r="E5" s="83">
+        <v>0.48</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="117"/>
+      <c r="C6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="117"/>
+      <c r="C7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.36</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17" thickBot="1">
+      <c r="B8" s="118"/>
+      <c r="C8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0.44</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.46</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.47</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45">
+        <v>1.86</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1.25</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G9" s="45">
+        <v>2.33</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="120"/>
+      <c r="C10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0.46</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.44</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.48</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0.47</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="120"/>
+      <c r="C11" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0.46</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.44</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0.48</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.47</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="120"/>
+      <c r="C12" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0.31</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.32</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0.27</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1">
+      <c r="B13" s="121"/>
+      <c r="C13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="F13" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
+        <v>2.31</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1.45</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1.22</v>
+      </c>
+      <c r="G14" s="49">
+        <v>2.39</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="123"/>
+      <c r="C15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0.46</v>
+      </c>
+      <c r="E15" s="94">
+        <v>0.51</v>
+      </c>
+      <c r="F15" s="49">
+        <v>0.43</v>
+      </c>
+      <c r="G15" s="49">
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="123"/>
+      <c r="C16" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="49">
+        <v>0.46</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="F16" s="49">
+        <v>0.43</v>
+      </c>
+      <c r="G16" s="49">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="123"/>
+      <c r="C17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="94">
+        <v>0.36</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0.34</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17" thickBot="1">
+      <c r="B18" s="124"/>
+      <c r="C18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="51">
+        <v>0.44</v>
+      </c>
+      <c r="E18" s="51">
+        <v>0.48</v>
+      </c>
+      <c r="F18" s="51">
+        <v>0.42</v>
+      </c>
+      <c r="G18" s="51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E19" s="53">
+        <v>1.67</v>
+      </c>
+      <c r="F19" s="53">
+        <v>1.22</v>
+      </c>
+      <c r="G19" s="53">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="126"/>
+      <c r="C20" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.43</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="F20" s="53">
+        <v>0.47</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="126"/>
+      <c r="C21" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.43</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="F21" s="53">
+        <v>0.47</v>
+      </c>
+      <c r="G21" s="53">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="126"/>
+      <c r="C22" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0.33</v>
+      </c>
+      <c r="F22" s="53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G22" s="53">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17" thickBot="1">
+      <c r="B23" s="127"/>
+      <c r="C23" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0.43</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0.44</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0.44</v>
+      </c>
+      <c r="G23" s="55">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="57">
+        <v>1.39</v>
+      </c>
+      <c r="E24" s="57">
+        <v>1.24</v>
+      </c>
+      <c r="F24" s="57">
+        <v>1.22</v>
+      </c>
+      <c r="G24" s="57">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="97"/>
+      <c r="C25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="E25" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="G25" s="57">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="97"/>
+      <c r="C26" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="E26" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="G26" s="57">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="97"/>
+      <c r="C27" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="F27" s="57">
+        <v>0.17</v>
+      </c>
+      <c r="G27" s="57">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17" thickBot="1">
+      <c r="B28" s="98"/>
+      <c r="C28" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="59">
+        <v>0.41</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F28" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="57">
+        <v>1.62</v>
+      </c>
+      <c r="E29" s="57">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G29" s="57">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="97"/>
+      <c r="C30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="E30" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="97"/>
+      <c r="C31" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="E31" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="97"/>
+      <c r="C32" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="57">
+        <v>0.32</v>
+      </c>
+      <c r="E32" s="57">
+        <v>0.37</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0.39</v>
+      </c>
+      <c r="G32" s="57">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="17" thickBot="1">
+      <c r="B33" s="98"/>
+      <c r="C33" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="59">
+        <v>0.49</v>
+      </c>
+      <c r="G33" s="59">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88080FF-122E-2A4D-AEB0-1683C2720585}">
   <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B44" sqref="B44:B48"/>
     </sheetView>
   </sheetViews>
@@ -3759,14 +4223,13 @@
       <c r="J4" s="66">
         <v>0.92</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="117"/>
@@ -3794,14 +4257,13 @@
       <c r="J5" s="66">
         <v>0.61</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="117"/>
@@ -3829,14 +4291,13 @@
       <c r="J6" s="66">
         <v>0.61</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="117"/>
@@ -3864,14 +4325,13 @@
       <c r="J7" s="66">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:19" ht="17" thickBot="1">
       <c r="B8" s="117"/>
@@ -3900,14 +4360,13 @@
         <v>0.6</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="17" customHeight="1">
       <c r="B9" s="129" t="s">
@@ -3939,7 +4398,6 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="130"/>
@@ -3971,7 +4429,6 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="130"/>
@@ -4000,10 +4457,9 @@
         <v>0.62</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="130"/>
@@ -4032,10 +4488,9 @@
         <v>0.54</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
       <c r="B13" s="131"/>
@@ -4064,10 +4519,9 @@
         <v>0.6</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="129" t="s">
@@ -4098,10 +4552,9 @@
         <v>1.01</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="130"/>
@@ -4130,10 +4583,9 @@
         <v>0.61</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="130"/>
@@ -4169,7 +4621,6 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="130"/>
@@ -4198,14 +4649,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
       <c r="B18" s="131"/>
@@ -4234,14 +4684,13 @@
         <v>0.6</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="129" t="s">
@@ -4271,14 +4720,13 @@
       <c r="J19" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="130"/>
@@ -4298,14 +4746,13 @@
       <c r="H20" s="133"/>
       <c r="I20" s="133"/>
       <c r="J20" s="133"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="130"/>
@@ -4325,14 +4772,13 @@
       <c r="H21" s="133"/>
       <c r="I21" s="133"/>
       <c r="J21" s="133"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="130"/>
@@ -4359,7 +4805,6 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
       <c r="B23" s="131"/>
@@ -4379,14 +4824,13 @@
       <c r="H23" s="134"/>
       <c r="I23" s="134"/>
       <c r="J23" s="134"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="120" t="s">
@@ -4416,14 +4860,13 @@
       <c r="J24" s="45">
         <v>1.02</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="120"/>
@@ -4451,14 +4894,13 @@
       <c r="J25" s="45">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="120"/>
@@ -4486,14 +4928,13 @@
       <c r="J26" s="45">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="120"/>
@@ -4521,14 +4962,13 @@
       <c r="J27" s="45">
         <v>0.51</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1">
       <c r="B28" s="121"/>
@@ -4556,6 +4996,7 @@
       <c r="J28" s="47">
         <v>0.53</v>
       </c>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="122" t="s">
@@ -4832,7 +5273,6 @@
       <c r="J36" s="76">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -4867,7 +5307,6 @@
       <c r="J37" s="76">
         <v>0.5</v>
       </c>
-      <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4902,7 +5341,6 @@
       <c r="J38" s="78">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L38" s="1"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4912,7 +5350,7 @@
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="96" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="56" t="s">
@@ -4939,7 +5377,6 @@
       <c r="J39" s="80">
         <v>1.2</v>
       </c>
-      <c r="L39" s="1"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4949,7 +5386,7 @@
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="111"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="56" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +5411,6 @@
       <c r="J40" s="57">
         <v>0.45</v>
       </c>
-      <c r="L40" s="1"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4984,7 +5420,7 @@
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="111"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="56" t="s">
         <v>42</v>
       </c>
@@ -5009,7 +5445,6 @@
       <c r="J41" s="57">
         <v>0.45</v>
       </c>
-      <c r="L41" s="1"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5019,7 +5454,7 @@
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="111"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="56" t="s">
         <v>43</v>
       </c>
@@ -5046,7 +5481,7 @@
       </c>
     </row>
     <row r="43" spans="2:19" ht="17" thickBot="1">
-      <c r="B43" s="112"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="58" t="s">
         <v>44</v>
       </c>
@@ -5073,7 +5508,7 @@
       </c>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="96" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="56" t="s">
@@ -5102,7 +5537,7 @@
       </c>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="111"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="56" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5564,7 @@
       </c>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="111"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="56" t="s">
         <v>42</v>
       </c>
@@ -5156,7 +5591,7 @@
       </c>
     </row>
     <row r="47" spans="2:19">
-      <c r="B47" s="111"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="56" t="s">
         <v>43</v>
       </c>
@@ -5183,7 +5618,7 @@
       </c>
     </row>
     <row r="48" spans="2:19" ht="17" thickBot="1">
-      <c r="B48" s="112"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="58" t="s">
         <v>44</v>
       </c>
@@ -5231,11 +5666,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -5245,18 +5675,23 @@
     <mergeCell ref="I19:I23"/>
     <mergeCell ref="J19:J23"/>
     <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1F63B-5678-5E43-809D-46E26AC7998F}">
-  <dimension ref="B1:Q35"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B33"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5271,8 +5706,8 @@
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1"/>
-    <row r="2" spans="2:17" ht="24" thickBot="1">
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16" ht="24" thickBot="1">
       <c r="B2" s="113" t="s">
         <v>41</v>
       </c>
@@ -5283,7 +5718,7 @@
       <c r="G2" s="114"/>
       <c r="H2" s="128"/>
     </row>
-    <row r="3" spans="2:17" ht="17" thickBot="1">
+    <row r="3" spans="2:16" ht="17" thickBot="1">
       <c r="B3" s="60" t="s">
         <v>31</v>
       </c>
@@ -5312,7 +5747,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:16">
       <c r="B4" s="116" t="s">
         <v>35</v>
       </c>
@@ -5342,7 +5777,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:16">
       <c r="B5" s="117"/>
       <c r="C5" s="39" t="s">
         <v>1</v>
@@ -5362,15 +5797,14 @@
       <c r="H5" s="92">
         <v>0.46</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:17">
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="117"/>
       <c r="C6" s="39" t="s">
         <v>42</v>
@@ -5390,16 +5824,15 @@
       <c r="H6" s="66">
         <v>0.46</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="2:17">
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="117"/>
       <c r="C7" s="39" t="s">
         <v>43</v>
@@ -5419,16 +5852,15 @@
       <c r="H7" s="66">
         <v>0.13</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" ht="17" thickBot="1">
+    </row>
+    <row r="8" spans="2:16" ht="17" thickBot="1">
       <c r="B8" s="118"/>
       <c r="C8" s="42" t="s">
         <v>44</v>
@@ -5448,16 +5880,15 @@
       <c r="H8" s="66">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="2:17">
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="119" t="s">
         <v>23</v>
       </c>
@@ -5479,15 +5910,15 @@
       <c r="H9" s="63">
         <v>27.28</v>
       </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="2:17">
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="120"/>
       <c r="C10" s="44" t="s">
         <v>1</v>
@@ -5507,15 +5938,15 @@
       <c r="H10" s="45">
         <v>0.39</v>
       </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="2:17">
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="120"/>
       <c r="C11" s="44" t="s">
         <v>42</v>
@@ -5535,15 +5966,15 @@
       <c r="H11" s="45">
         <v>0.39</v>
       </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="2:17">
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="120"/>
       <c r="C12" s="44" t="s">
         <v>43</v>
@@ -5563,15 +5994,15 @@
       <c r="H12" s="45">
         <v>0.2</v>
       </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="2:17" ht="17" thickBot="1">
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1">
       <c r="B13" s="121"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
@@ -5591,14 +6022,14 @@
       <c r="H13" s="47">
         <v>0.32</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="2:17">
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="122" t="s">
         <v>25</v>
       </c>
@@ -5620,14 +6051,14 @@
       <c r="H14" s="68">
         <v>16.5</v>
       </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="2:17">
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="123"/>
       <c r="C15" s="48" t="s">
         <v>1</v>
@@ -5647,14 +6078,14 @@
       <c r="H15" s="70">
         <v>0.23</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:17">
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="123"/>
       <c r="C16" s="48" t="s">
         <v>42</v>
@@ -5674,15 +6105,15 @@
       <c r="H16" s="70">
         <v>0.23</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="2:17">
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="123"/>
       <c r="C17" s="48" t="s">
         <v>43</v>
@@ -5707,11 +6138,10 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="2:17" ht="17" thickBot="1">
+    </row>
+    <row r="18" spans="2:16" ht="17" thickBot="1">
       <c r="B18" s="124"/>
       <c r="C18" s="50" t="s">
         <v>44</v>
@@ -5731,16 +6161,15 @@
       <c r="H18" s="72">
         <v>0.13</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="2:17">
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="125" t="s">
         <v>27</v>
       </c>
@@ -5762,16 +6191,15 @@
       <c r="H19" s="74">
         <v>17.850000000000001</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="2:17">
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="126"/>
       <c r="C20" s="52" t="s">
         <v>1</v>
@@ -5791,16 +6219,15 @@
       <c r="H20" s="76">
         <v>0.25</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="2:17">
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="126"/>
       <c r="C21" s="52" t="s">
         <v>42</v>
@@ -5820,15 +6247,14 @@
       <c r="H21" s="76">
         <v>0.25</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="2:17">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="126"/>
       <c r="C22" s="52" t="s">
         <v>43</v>
@@ -5848,15 +6274,14 @@
       <c r="H22" s="76">
         <v>0.16</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:17" ht="17" thickBot="1">
+    </row>
+    <row r="23" spans="2:16" ht="17" thickBot="1">
       <c r="B23" s="127"/>
       <c r="C23" s="54" t="s">
         <v>44</v>
@@ -5876,15 +6301,15 @@
       <c r="H23" s="78">
         <v>0.18</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="110" t="s">
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="96" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -5905,15 +6330,15 @@
       <c r="H24" s="80">
         <v>51.06</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="111"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="97"/>
       <c r="C25" s="56" t="s">
         <v>1</v>
       </c>
@@ -5932,15 +6357,15 @@
       <c r="H25" s="57">
         <v>0.46</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="111"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="97"/>
       <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
@@ -5959,15 +6384,15 @@
       <c r="H26" s="57">
         <v>0.46</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="111"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="97"/>
       <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
@@ -5986,10 +6411,10 @@
       <c r="H27" s="57">
         <v>0.13</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" ht="17" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" ht="17" thickBot="1">
+      <c r="B28" s="98"/>
       <c r="C28" s="58" t="s">
         <v>44</v>
       </c>
@@ -6009,8 +6434,8 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
-      <c r="B29" s="110" t="s">
+    <row r="29" spans="2:16">
+      <c r="B29" s="96" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -6032,8 +6457,8 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
-      <c r="B30" s="111"/>
+    <row r="30" spans="2:16">
+      <c r="B30" s="97"/>
       <c r="C30" s="56" t="s">
         <v>1</v>
       </c>
@@ -6053,8 +6478,8 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="111"/>
+    <row r="31" spans="2:16">
+      <c r="B31" s="97"/>
       <c r="C31" s="56" t="s">
         <v>42</v>
       </c>
@@ -6074,8 +6499,8 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="111"/>
+    <row r="32" spans="2:16">
+      <c r="B32" s="97"/>
       <c r="C32" s="56" t="s">
         <v>43</v>
       </c>
@@ -6096,7 +6521,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="17" thickBot="1">
-      <c r="B33" s="112"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="58" t="s">
         <v>44</v>
       </c>
